--- a/RP_TR_integration_Section6.xlsx
+++ b/RP_TR_integration_Section6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Chamodi\Machine_Learning\Pressure_history_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330C0AB4-ED62-477A-9D55-D5424D595542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AA5D99-FFAA-4983-B33D-835DA721ED0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8900" yWindow="4500" windowWidth="28800" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19770" yWindow="4660" windowWidth="18280" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1044,44 +1044,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color auto="1"/>
         </top>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+      <border outline="0">
+        <bottom style="thin">
           <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1114,16 +1086,44 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color auto="1"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1140,7 +1140,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0BCCEB5-08DA-48FA-BDC0-151561FE113F}" name="Table1" displayName="Table1" ref="A1:H302" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0BCCEB5-08DA-48FA-BDC0-151561FE113F}" name="Table1" displayName="Table1" ref="A1:H302" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:H302" xr:uid="{D0BCCEB5-08DA-48FA-BDC0-151561FE113F}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{751A5580-1B29-4F7D-A35A-69C056034628}" name="path"/>
@@ -1157,7 +1157,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{410E1226-EF76-470E-901B-82A35C66EC05}" name="Table13" displayName="Table13" ref="A1:I297" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{410E1226-EF76-470E-901B-82A35C66EC05}" name="Table13" displayName="Table13" ref="A1:I297" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:I297" xr:uid="{D0BCCEB5-08DA-48FA-BDC0-151561FE113F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I297">
     <sortCondition ref="I1:I297"/>
@@ -1466,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H302"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H302"/>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="H288" sqref="H288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9343,7 +9343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE2B932-7F75-4F63-A734-A9495FAC9C39}">
   <dimension ref="A1:I297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+    <sheetView topLeftCell="A286" workbookViewId="0">
       <selection activeCell="G300" sqref="G300"/>
     </sheetView>
   </sheetViews>
